--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.829300666666667</v>
+        <v>11.91240233333333</v>
       </c>
       <c r="H2">
-        <v>14.487902</v>
+        <v>35.737207</v>
       </c>
       <c r="I2">
-        <v>0.02007571491808102</v>
+        <v>0.04935447906883859</v>
       </c>
       <c r="J2">
-        <v>0.02007571491808102</v>
+        <v>0.0493544790688386</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N2">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O2">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P2">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q2">
-        <v>22.69533067833778</v>
+        <v>151.0396998983938</v>
       </c>
       <c r="R2">
-        <v>204.25797610504</v>
+        <v>1359.357299085544</v>
       </c>
       <c r="S2">
-        <v>0.01939413485307713</v>
+        <v>0.04871986015628454</v>
       </c>
       <c r="T2">
-        <v>0.01939413485307712</v>
+        <v>0.04871986015628455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.829300666666667</v>
+        <v>11.91240233333333</v>
       </c>
       <c r="H3">
-        <v>14.487902</v>
+        <v>35.737207</v>
       </c>
       <c r="I3">
-        <v>0.02007571491808102</v>
+        <v>0.04935447906883859</v>
       </c>
       <c r="J3">
-        <v>0.02007571491808102</v>
+        <v>0.0493544790688386</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N3">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q3">
-        <v>0.7975960297384443</v>
+        <v>1.967424573767889</v>
       </c>
       <c r="R3">
-        <v>7.178364267645999</v>
+        <v>17.706821163911</v>
       </c>
       <c r="S3">
-        <v>0.0006815800650038927</v>
+        <v>0.0006346189125540536</v>
       </c>
       <c r="T3">
-        <v>0.0006815800650038927</v>
+        <v>0.0006346189125540537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>430.98816</v>
       </c>
       <c r="I4">
-        <v>0.597215209850832</v>
+        <v>0.5952114870542978</v>
       </c>
       <c r="J4">
-        <v>0.597215209850832</v>
+        <v>0.5952114870542978</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N4">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O4">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P4">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q4">
-        <v>675.1439103914668</v>
+        <v>1821.527976323414</v>
       </c>
       <c r="R4">
-        <v>6076.2951935232</v>
+        <v>16393.75178691072</v>
       </c>
       <c r="S4">
-        <v>0.5769394695739646</v>
+        <v>0.5875580283656299</v>
       </c>
       <c r="T4">
-        <v>0.5769394695739645</v>
+        <v>0.58755802836563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>430.98816</v>
       </c>
       <c r="I5">
-        <v>0.597215209850832</v>
+        <v>0.5952114870542978</v>
       </c>
       <c r="J5">
-        <v>0.597215209850832</v>
+        <v>0.5952114870542978</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N5">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q5">
-        <v>23.72699962218666</v>
+        <v>23.72699962218667</v>
       </c>
       <c r="R5">
         <v>213.54299659968</v>
       </c>
       <c r="S5">
-        <v>0.02027574027686742</v>
+        <v>0.007653458688667877</v>
       </c>
       <c r="T5">
-        <v>0.02027574027686742</v>
+        <v>0.007653458688667877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.326535333333333</v>
+        <v>4.406680666666666</v>
       </c>
       <c r="H6">
-        <v>21.979606</v>
+        <v>13.220042</v>
       </c>
       <c r="I6">
-        <v>0.03045688078700029</v>
+        <v>0.01825739449023443</v>
       </c>
       <c r="J6">
-        <v>0.03045688078700029</v>
+        <v>0.01825739449023443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N6">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O6">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P6">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q6">
-        <v>34.43110164256889</v>
+        <v>55.87317375765156</v>
       </c>
       <c r="R6">
-        <v>309.87991478312</v>
+        <v>502.858563818864</v>
       </c>
       <c r="S6">
-        <v>0.02942285520577811</v>
+        <v>0.01802263387567496</v>
       </c>
       <c r="T6">
-        <v>0.02942285520577811</v>
+        <v>0.01802263387567496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.326535333333333</v>
+        <v>4.406680666666666</v>
       </c>
       <c r="H7">
-        <v>21.979606</v>
+        <v>13.220042</v>
       </c>
       <c r="I7">
-        <v>0.03045688078700029</v>
+        <v>0.01825739449023443</v>
       </c>
       <c r="J7">
-        <v>0.03045688078700029</v>
+        <v>0.01825739449023443</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N7">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q7">
-        <v>1.210033480404222</v>
+        <v>0.7277970966517778</v>
       </c>
       <c r="R7">
-        <v>10.890301323638</v>
+        <v>6.550173869866</v>
       </c>
       <c r="S7">
-        <v>0.001034025581222177</v>
+        <v>0.0002347606145594679</v>
       </c>
       <c r="T7">
-        <v>0.001034025581222177</v>
+        <v>0.0002347606145594679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.73579966666667</v>
+        <v>81.382356</v>
       </c>
       <c r="H8">
-        <v>254.207399</v>
+        <v>244.147068</v>
       </c>
       <c r="I8">
-        <v>0.3522521944440868</v>
+        <v>0.337176639386629</v>
       </c>
       <c r="J8">
-        <v>0.3522521944440868</v>
+        <v>0.3371766393866291</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N8">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O8">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P8">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q8">
-        <v>398.2164554388311</v>
+        <v>1031.862951175584</v>
       </c>
       <c r="R8">
-        <v>3583.94809894948</v>
+        <v>9286.766560580258</v>
       </c>
       <c r="S8">
-        <v>0.3402930649900851</v>
+        <v>0.332841092213135</v>
       </c>
       <c r="T8">
-        <v>0.340293064990085</v>
+        <v>0.3328410922131351</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.73579966666667</v>
+        <v>81.382356</v>
       </c>
       <c r="H9">
-        <v>254.207399</v>
+        <v>244.147068</v>
       </c>
       <c r="I9">
-        <v>0.3522521944440868</v>
+        <v>0.337176639386629</v>
       </c>
       <c r="J9">
-        <v>0.3522521944440868</v>
+        <v>0.3371766393866291</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N9">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q9">
-        <v>13.99476695608078</v>
+        <v>13.440920024796</v>
       </c>
       <c r="R9">
-        <v>125.952902604727</v>
+        <v>120.968280223164</v>
       </c>
       <c r="S9">
-        <v>0.01195912945400172</v>
+        <v>0.004335547173494016</v>
       </c>
       <c r="T9">
-        <v>0.01195912945400172</v>
+        <v>0.004335547173494017</v>
       </c>
     </row>
   </sheetData>
